--- a/ios/flow-ios.xlsx
+++ b/ios/flow-ios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-webviewapp-sample-v2/ios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/ios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6DA501-07F8-914C-A160-BCB49012E0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D940295-65FB-0A48-878C-63B823D39940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
   </bookViews>
@@ -4375,23 +4375,15 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>裏で本物の</a:t>
+            <a:t>自動的に</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>AmazonPay</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Login</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ボタンを読み込み、自動的に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Click</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>。</a:t>
+            <a:t>画面に遷移</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4959,7 +4951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA858D-4327-E246-AC75-10AD98E76650}">
   <dimension ref="B1:BD60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/ios/flow-ios.xlsx
+++ b/ios/flow-ios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utetsuo/workplace/amazonpay-sample-app-v2/ios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimtsuyo\Downloads\amazonpay-sample-app-v2-master\ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D940295-65FB-0A48-878C-63B823D39940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4720" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{31041FA4-F250-5B48-8777-A21A45303114}"/>
+    <workbookView xWindow="-4725" yWindow="-21135" windowWidth="38400" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="flow" sheetId="4" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t>にアクセス</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -72,27 +68,29 @@
     <t>https://localhost:3443/appLogin</t>
   </si>
   <si>
-    <t>Checkout Session Update APIの</t>
-  </si>
-  <si>
-    <t>戻り値のURLにアクセス</t>
-  </si>
-  <si>
     <t>https://localhost:3443/sample/thanks</t>
   </si>
   <si>
     <t>https://localhost:3443/sample/checkoutReview?amazonCheckoutSessionId={id}</t>
   </si>
+  <si>
+    <t xml:space="preserve">Access to </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Access to url of response of Update Checkout Session API</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -100,7 +98,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,7 +106,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,8 +125,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,8 +311,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1189,7 +1194,23 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebView内のJavaScriptから、ViewControllerを起動</a:t>
+            <a:t>Laucnch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ViewController </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>from JavaScript in WebView.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1222,8 +1243,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5105400" y="2868127"/>
-          <a:ext cx="3924300" cy="6918337"/>
+          <a:off x="6001871" y="3429915"/>
+          <a:ext cx="4566770" cy="8390043"/>
           <a:chOff x="6350000" y="7097227"/>
           <a:chExt cx="3924300" cy="6918337"/>
         </a:xfrm>
@@ -1419,11 +1440,21 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebViewの起動</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Launch WebView</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1492,7 +1523,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>SFSafariViewを起動</a:t>
+            <a:t>Launch SFSafariView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1684,15 +1715,74 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>SFSafariViewのClose</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Set target</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> url in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Close</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ViewController</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of  </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ViewControllerに遷移先URLを設定</a:t>
+            <a:t>SFSafariView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1754,15 +1844,60 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="just" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Launch AppDelegate#application by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Universal</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Linksにより、AppDelegate#applicationが起動。</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Links</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1830,32 +1965,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>遷移先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>URL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>load</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>JavaScript</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を起動</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Launch JavaScript to load target url</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2017,8 +2128,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35255200" y="2791927"/>
-          <a:ext cx="3924300" cy="6918337"/>
+          <a:off x="41933906" y="3353715"/>
+          <a:ext cx="4727388" cy="8390043"/>
           <a:chOff x="35255200" y="2791927"/>
           <a:chExt cx="3924300" cy="6918337"/>
         </a:xfrm>
@@ -2196,7 +2307,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>遷移先URLをloadするJavaScriptを起動</a:t>
+            <a:t>Launch JavaScript to load target url</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2318,17 +2429,69 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>SFSafariViewのClose</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Set target url in Close</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ViewController of </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ViewControllerに遷移先URLを設定</a:t>
+            <a:t>SFSafariView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2449,8 +2612,37 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>CustomURLSchemeにより、AppDelegate#applicationが起動。</a:t>
+            <a:t>Launch </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AppDelegate#application</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> by </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CustomURLScheme</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2482,8 +2674,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15061826" y="2755900"/>
-          <a:ext cx="3975473" cy="7008553"/>
+          <a:off x="17885708" y="3317688"/>
+          <a:ext cx="4778562" cy="8480259"/>
           <a:chOff x="15468226" y="2781300"/>
           <a:chExt cx="3975473" cy="7008553"/>
         </a:xfrm>
@@ -2575,8 +2767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18681542" y="2705100"/>
-          <a:ext cx="4034152" cy="7112000"/>
+          <a:off x="22147895" y="3266888"/>
+          <a:ext cx="4837240" cy="8625541"/>
           <a:chOff x="18681542" y="2705100"/>
           <a:chExt cx="4034152" cy="7112000"/>
         </a:xfrm>
@@ -3035,8 +3227,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23507542" y="2667000"/>
-          <a:ext cx="4034152" cy="7112000"/>
+          <a:off x="27937601" y="3228788"/>
+          <a:ext cx="4837240" cy="8583706"/>
           <a:chOff x="22301042" y="2603500"/>
           <a:chExt cx="4034152" cy="7112000"/>
         </a:xfrm>
@@ -3309,15 +3501,62 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="just" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In case of working </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Universal</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Linksが発動した場合</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Links</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3378,18 +3617,59 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In case of NOT working </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Universal</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Linksが発動しなかった場合、</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Links;</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="just"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>redirect to   </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -3399,13 +3679,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>https://localhost:3443/static/next.html</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="just"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>にリダイレクト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3511,8 +3784,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29209842" y="2692400"/>
-          <a:ext cx="4034152" cy="7112000"/>
+          <a:off x="34764224" y="3254188"/>
+          <a:ext cx="4837241" cy="8625541"/>
           <a:chOff x="29209842" y="2692400"/>
           <a:chExt cx="4034152" cy="7112000"/>
         </a:xfrm>
@@ -3690,7 +3963,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>SFSafariViewを起動</a:t>
+            <a:t>Launch SFSafariView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3984,7 +4257,23 @@
           <a:pPr algn="just"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WebView内のJavaScriptから、ViewControllerを起動</a:t>
+            <a:t>Launch </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ViewController </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>from JavaScript in WebView</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4180,8 +4469,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41287700" y="2578101"/>
-          <a:ext cx="4114800" cy="7366000"/>
+          <a:off x="49251347" y="3096560"/>
+          <a:ext cx="4917888" cy="8922870"/>
           <a:chOff x="41287700" y="2578101"/>
           <a:chExt cx="4178229" cy="7366000"/>
         </a:xfrm>
@@ -4374,16 +4663,20 @@
         <a:p>
           <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自動的に</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Automatically move to Login Screen</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面に遷移</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -4516,40 +4809,69 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Amazon</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Obtain checkoutSession by Amazon</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Pay</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>API</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>checkoutSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を取得</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4610,40 +4932,69 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="just"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Amazon</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Update checkoutSession by Amazon</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Pay</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>API</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>checkoutSession</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を更新</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4948,20 +5299,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA858D-4327-E246-AC75-10AD98E76650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BD60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:56" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:56" ht="20.25" thickBot="1"/>
+    <row r="2" spans="2:56">
       <c r="B2" s="13"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -5018,7 +5369,7 @@
       <c r="BC2" s="3"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:56">
       <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
@@ -5075,9 +5426,9 @@
       <c r="BC3" s="5"/>
       <c r="BD3" s="6"/>
     </row>
-    <row r="4" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:56">
       <c r="B4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="5"/>
@@ -5134,9 +5485,9 @@
       <c r="BC4" s="5"/>
       <c r="BD4" s="6"/>
     </row>
-    <row r="5" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:56">
       <c r="B5" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
@@ -5193,9 +5544,9 @@
       <c r="BC5" s="5"/>
       <c r="BD5" s="6"/>
     </row>
-    <row r="6" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:56">
       <c r="B6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="5"/>
@@ -5251,9 +5602,9 @@
       <c r="BC6" s="5"/>
       <c r="BD6" s="6"/>
     </row>
-    <row r="7" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:56">
       <c r="B7" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
@@ -5309,9 +5660,9 @@
       <c r="BC7" s="5"/>
       <c r="BD7" s="6"/>
     </row>
-    <row r="8" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:56">
       <c r="B8" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
@@ -5368,9 +5719,9 @@
       <c r="BC8" s="5"/>
       <c r="BD8" s="6"/>
     </row>
-    <row r="9" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:56">
       <c r="B9" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="5"/>
@@ -5427,7 +5778,7 @@
       <c r="BC9" s="5"/>
       <c r="BD9" s="6"/>
     </row>
-    <row r="10" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:56">
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
@@ -5484,9 +5835,9 @@
       <c r="BC10" s="5"/>
       <c r="BD10" s="6"/>
     </row>
-    <row r="11" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:56">
       <c r="B11" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
@@ -5543,9 +5894,9 @@
       <c r="BC11" s="5"/>
       <c r="BD11" s="6"/>
     </row>
-    <row r="12" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:56">
       <c r="B12" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
@@ -5602,9 +5953,9 @@
       <c r="BC12" s="5"/>
       <c r="BD12" s="6"/>
     </row>
-    <row r="13" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:56">
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="5"/>
@@ -5661,7 +6012,7 @@
       <c r="BC13" s="5"/>
       <c r="BD13" s="6"/>
     </row>
-    <row r="14" spans="2:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:56" ht="20.25" thickBot="1">
       <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -5718,7 +6069,7 @@
       <c r="BC14" s="10"/>
       <c r="BD14" s="11"/>
     </row>
-    <row r="15" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:56">
       <c r="B15" s="13"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -5775,9 +6126,9 @@
       <c r="BC15" s="3"/>
       <c r="BD15" s="4"/>
     </row>
-    <row r="16" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:56">
       <c r="B16" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
@@ -5834,9 +6185,9 @@
       <c r="BC16" s="5"/>
       <c r="BD16" s="6"/>
     </row>
-    <row r="17" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:56">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
@@ -5893,9 +6244,9 @@
       <c r="BC17" s="5"/>
       <c r="BD17" s="6"/>
     </row>
-    <row r="18" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:56">
       <c r="B18" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="5"/>
@@ -5951,9 +6302,9 @@
       <c r="BC18" s="5"/>
       <c r="BD18" s="6"/>
     </row>
-    <row r="19" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:56">
       <c r="B19" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
@@ -6010,9 +6361,9 @@
       <c r="BC19" s="5"/>
       <c r="BD19" s="6"/>
     </row>
-    <row r="20" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:56">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
@@ -6069,9 +6420,9 @@
       <c r="BC20" s="5"/>
       <c r="BD20" s="6"/>
     </row>
-    <row r="21" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:56">
       <c r="B21" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
@@ -6128,9 +6479,9 @@
       <c r="BC21" s="5"/>
       <c r="BD21" s="6"/>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:56">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
@@ -6187,7 +6538,7 @@
       <c r="BC22" s="5"/>
       <c r="BD22" s="6"/>
     </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:56">
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
@@ -6242,7 +6593,7 @@
       <c r="BC23" s="5"/>
       <c r="BD23" s="6"/>
     </row>
-    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:56">
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
@@ -6298,7 +6649,7 @@
       <c r="BC24" s="5"/>
       <c r="BD24" s="6"/>
     </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:56">
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
@@ -6355,7 +6706,7 @@
       <c r="BC25" s="5"/>
       <c r="BD25" s="6"/>
     </row>
-    <row r="26" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:56">
       <c r="B26" s="15"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
@@ -6412,7 +6763,7 @@
       <c r="BC26" s="5"/>
       <c r="BD26" s="6"/>
     </row>
-    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:56">
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
@@ -6469,7 +6820,7 @@
       <c r="BC27" s="5"/>
       <c r="BD27" s="6"/>
     </row>
-    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:56">
       <c r="B28" s="15"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
@@ -6526,7 +6877,7 @@
       <c r="BC28" s="5"/>
       <c r="BD28" s="6"/>
     </row>
-    <row r="29" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:56">
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
@@ -6583,7 +6934,7 @@
       <c r="BC29" s="5"/>
       <c r="BD29" s="6"/>
     </row>
-    <row r="30" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:56">
       <c r="B30" s="15"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
@@ -6640,7 +6991,7 @@
       <c r="BC30" s="5"/>
       <c r="BD30" s="6"/>
     </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:56">
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
@@ -6696,7 +7047,7 @@
       <c r="BC31" s="5"/>
       <c r="BD31" s="6"/>
     </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:56">
       <c r="B32" s="15"/>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -6753,7 +7104,7 @@
       <c r="BC32" s="5"/>
       <c r="BD32" s="6"/>
     </row>
-    <row r="33" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:56">
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -6810,7 +7161,7 @@
       <c r="BC33" s="5"/>
       <c r="BD33" s="6"/>
     </row>
-    <row r="34" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:56">
       <c r="B34" s="15"/>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -6867,7 +7218,7 @@
       <c r="BC34" s="5"/>
       <c r="BD34" s="6"/>
     </row>
-    <row r="35" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:56">
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -6924,7 +7275,7 @@
       <c r="BC35" s="5"/>
       <c r="BD35" s="6"/>
     </row>
-    <row r="36" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:56">
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
@@ -6981,7 +7332,7 @@
       <c r="BC36" s="5"/>
       <c r="BD36" s="6"/>
     </row>
-    <row r="37" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:56">
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
@@ -7038,7 +7389,7 @@
       <c r="BC37" s="5"/>
       <c r="BD37" s="6"/>
     </row>
-    <row r="38" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:56">
       <c r="B38" s="15"/>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
@@ -7095,7 +7446,7 @@
       <c r="BC38" s="5"/>
       <c r="BD38" s="6"/>
     </row>
-    <row r="39" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:56">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
@@ -7152,7 +7503,7 @@
       <c r="BC39" s="5"/>
       <c r="BD39" s="6"/>
     </row>
-    <row r="40" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:56">
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
@@ -7209,7 +7560,7 @@
       <c r="BC40" s="5"/>
       <c r="BD40" s="6"/>
     </row>
-    <row r="41" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:56">
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
@@ -7266,7 +7617,7 @@
       <c r="BC41" s="5"/>
       <c r="BD41" s="6"/>
     </row>
-    <row r="42" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:56">
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
@@ -7323,10 +7674,12 @@
       <c r="BC42" s="5"/>
       <c r="BD42" s="6"/>
     </row>
-    <row r="43" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:56">
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="5"/>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -7380,11 +7733,11 @@
       <c r="BC43" s="5"/>
       <c r="BD43" s="6"/>
     </row>
-    <row r="44" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:56">
       <c r="B44" s="15"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -7439,11 +7792,8 @@
       <c r="BC44" s="5"/>
       <c r="BD44" s="6"/>
     </row>
-    <row r="45" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:56">
       <c r="B45" s="15"/>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -7497,7 +7847,7 @@
       <c r="BC45" s="5"/>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:56">
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
       <c r="E46" s="5"/>
@@ -7553,7 +7903,7 @@
       <c r="BC46" s="5"/>
       <c r="BD46" s="6"/>
     </row>
-    <row r="47" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:56">
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
       <c r="E47" s="5"/>
@@ -7609,7 +7959,7 @@
       <c r="BC47" s="5"/>
       <c r="BD47" s="6"/>
     </row>
-    <row r="48" spans="2:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:56" ht="20.25" thickBot="1">
       <c r="B48" s="16"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -7666,7 +8016,7 @@
       <c r="BC48" s="10"/>
       <c r="BD48" s="11"/>
     </row>
-    <row r="49" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:56">
       <c r="B49" s="13"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
@@ -7678,7 +8028,9 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="18"/>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
       <c r="N49" s="18"/>
       <c r="O49" s="3"/>
       <c r="P49" s="18"/>
@@ -7697,7 +8049,9 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="18"/>
+      <c r="AF49" t="s">
+        <v>16</v>
+      </c>
       <c r="AG49" s="18"/>
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
@@ -7715,7 +8069,9 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
       <c r="AW49" s="3"/>
-      <c r="AX49" s="3"/>
+      <c r="AX49" t="s">
+        <v>16</v>
+      </c>
       <c r="AY49" s="3"/>
       <c r="AZ49" s="3"/>
       <c r="BA49" s="3"/>
@@ -7723,9 +8079,9 @@
       <c r="BC49" s="3"/>
       <c r="BD49" s="4"/>
     </row>
-    <row r="50" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:56">
       <c r="B50" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="5"/>
@@ -7737,7 +8093,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="M50" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -7758,7 +8114,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
@@ -7771,7 +8127,7 @@
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
@@ -7780,7 +8136,7 @@
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
       <c r="AX50" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY50" s="5"/>
       <c r="AZ50" s="5"/>
@@ -7789,9 +8145,9 @@
       <c r="BC50" s="5"/>
       <c r="BD50" s="6"/>
     </row>
-    <row r="51" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:56">
       <c r="B51" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="5"/>
@@ -7803,9 +8159,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -7825,9 +8179,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
-      <c r="AG51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
@@ -7837,18 +8189,14 @@
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
       <c r="AP51" s="5"/>
-      <c r="AQ51" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>
       <c r="AT51" s="5"/>
       <c r="AU51" s="5"/>
       <c r="AV51" s="5"/>
       <c r="AW51" s="5"/>
-      <c r="AX51" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
@@ -7856,9 +8204,9 @@
       <c r="BC51" s="5"/>
       <c r="BD51" s="6"/>
     </row>
-    <row r="52" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:56">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="5"/>
@@ -7915,9 +8263,9 @@
       <c r="BC52" s="5"/>
       <c r="BD52" s="6"/>
     </row>
-    <row r="53" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:56">
       <c r="B53" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
@@ -7974,9 +8322,9 @@
       <c r="BC53" s="5"/>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:56">
       <c r="B54" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
@@ -8032,9 +8380,9 @@
       <c r="BC54" s="5"/>
       <c r="BD54" s="6"/>
     </row>
-    <row r="55" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:56">
       <c r="B55" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="5"/>
@@ -8091,7 +8439,7 @@
       <c r="BC55" s="5"/>
       <c r="BD55" s="6"/>
     </row>
-    <row r="56" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:56">
       <c r="B56" s="15"/>
       <c r="C56" s="7"/>
       <c r="D56" s="5"/>
@@ -8148,7 +8496,7 @@
       <c r="BC56" s="5"/>
       <c r="BD56" s="6"/>
     </row>
-    <row r="57" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:56">
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
       <c r="D57" s="5"/>
@@ -8205,7 +8553,7 @@
       <c r="BC57" s="5"/>
       <c r="BD57" s="6"/>
     </row>
-    <row r="58" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:56">
       <c r="B58" s="15"/>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
@@ -8262,7 +8610,7 @@
       <c r="BC58" s="5"/>
       <c r="BD58" s="6"/>
     </row>
-    <row r="59" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:56">
       <c r="B59" s="15"/>
       <c r="C59" s="7"/>
       <c r="D59" s="5"/>
@@ -8318,7 +8666,7 @@
       <c r="BC59" s="5"/>
       <c r="BD59" s="6"/>
     </row>
-    <row r="60" spans="2:56" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:56" ht="20.25" thickBot="1">
       <c r="B60" s="16"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
@@ -8376,11 +8724,12 @@
       <c r="BD60" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" xr:uid="{A66B8625-E6F4-0441-B0D8-110F452554AB}"/>
-    <hyperlink ref="M50" r:id="rId2" xr:uid="{F1341D1D-D397-9C44-B46E-9B70189960F1}"/>
-    <hyperlink ref="AF50" r:id="rId3" xr:uid="{C29B9C9A-878D-354C-B2C2-14990C03F811}"/>
-    <hyperlink ref="AX50" r:id="rId4" xr:uid="{164EEAF4-449C-AB42-A126-AFD7900E657E}"/>
+    <hyperlink ref="D44" r:id="rId1"/>
+    <hyperlink ref="M50" r:id="rId2"/>
+    <hyperlink ref="AF50" r:id="rId3"/>
+    <hyperlink ref="AX50" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
